--- a/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
+++ b/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitea\aa-documentation\kik-modeldocumenten\modeldocumenten\Hypotheek Quion generiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18249618-A29E-4820-B3F5-83584F2C6BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2922-EAD0-40FA-8677-7255CAB35813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22632" yWindow="1440" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7980" yWindow="2088" windowWidth="7344" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Labels </t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Allianz</t>
+  </si>
+  <si>
+    <t>BAWAG</t>
+  </si>
+  <si>
+    <t>ELAN</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -129,6 +135,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A16:B24"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,76 +432,92 @@
     <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B8" s="2">
         <v>44874</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B9" s="2">
         <v>44874</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44539</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44979</v>
       </c>
     </row>
   </sheetData>

--- a/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
+++ b/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
@@ -1,99 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitea\aa-documentation\kik-modeldocumenten\modeldocumenten\Hypotheek Quion generiek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitea\aa-tekstvergelijking\tekstvergelijking-testen\src\main\cucumber\hypotheek\quion_generiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812B2922-EAD0-40FA-8677-7255CAB35813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED770437-2DA8-462F-B167-B08E9F1EFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7980" yWindow="2088" windowWidth="7344" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16764" yWindow="5100" windowWidth="17280" windowHeight="8964" xr2:uid="{EFF2C1E3-D052-45C4-A672-2D04BB00EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Labels </t>
-  </si>
-  <si>
-    <t>Ingangsdatum</t>
-  </si>
-  <si>
-    <t>HOLLAND WOONT</t>
-  </si>
-  <si>
-    <t>Clarian Wonen</t>
-  </si>
-  <si>
-    <t>IQWOON</t>
-  </si>
-  <si>
-    <t>Robuust</t>
-  </si>
-  <si>
-    <t>WoonNu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>sublabel</t>
+  </si>
+  <si>
+    <t>ingangsdatum</t>
   </si>
   <si>
     <t>Medirect</t>
   </si>
   <si>
-    <t>Achmea</t>
-  </si>
-  <si>
-    <t>Allianz</t>
-  </si>
-  <si>
-    <t>BAWAG</t>
-  </si>
-  <si>
-    <t>ELAN</t>
+    <t xml:space="preserve"> Achmea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allianz       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WoonNu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IQWOON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robuust     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOLLAND WOONT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clarian Wonen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELAN      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAWAG   </t>
+  </si>
+  <si>
+    <t>Centraal Beheer</t>
+  </si>
+  <si>
+    <t>Woonfonds</t>
+  </si>
+  <si>
+    <t>Syntrus</t>
+  </si>
+  <si>
+    <t>Attens</t>
+  </si>
+  <si>
+    <t>Tellius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,21 +139,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -158,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,42 +179,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -233,12 +244,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -268,6 +296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -329,13 +374,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -344,6 +382,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -408,120 +453,178 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236ECE48-938B-4313-B5C1-083D5DD937E5}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C10" s="4">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C11" s="4">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>44539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C12" s="4">
         <v>44874</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
         <v>44874</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
         <v>44979</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
         <v>44979</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
+++ b/kik-modeldocumenten/modeldocumenten/Hypotheek Quion generiek/overzicht labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitea\aa-tekstvergelijking\tekstvergelijking-testen\src\main\cucumber\hypotheek\quion_generiek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\aa\aa-documentation\kik-modeldocumenten\modeldocumenten\Hypotheek Quion generiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED770437-2DA8-462F-B167-B08E9F1EFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6038FDA9-473B-4D1F-9B2B-C732429797A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16764" yWindow="5100" windowWidth="17280" windowHeight="8964" xr2:uid="{EFF2C1E3-D052-45C4-A672-2D04BB00EB04}"/>
+    <workbookView xWindow="-29952" yWindow="-1440" windowWidth="23040" windowHeight="12204" xr2:uid="{EFF2C1E3-D052-45C4-A672-2D04BB00EB04}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>label</t>
   </si>
@@ -90,26 +90,44 @@
   </si>
   <si>
     <t>Tellius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Credit </t>
+  </si>
+  <si>
+    <t>bijbouwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -149,6 +167,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236ECE48-938B-4313-B5C1-083D5DD937E5}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -624,6 +647,17 @@
         <v>44979</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
